--- a/ControlSignalSummary.xlsx
+++ b/ControlSignalSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdullah\git\303\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB761C06-CF6E-4482-AF21-8B1B8E15970B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B82740C-0E80-4912-88A0-574B2010F579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5717BC6-AC46-40EE-BBDE-F41991607320}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>opcode</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Hex</t>
+  </si>
+  <si>
+    <t>Adds</t>
   </si>
 </sst>
 </file>
@@ -523,21 +526,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D993041-AC61-499F-AE9C-995AA81C6B83}">
-  <dimension ref="A2:L35"/>
+  <dimension ref="A2:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" customWidth="1"/>
+    <col min="3" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="9" max="11" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -552,28 +555,31 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -605,15 +611,18 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f>J3*128+I3*64+H3*32+G3*16+F3*8+E3*4+D3*2+C3</f>
-        <v>3</v>
-      </c>
-      <c r="L3" t="str">
-        <f>DEC2HEX(K3)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <f>C3+D3*2+E3*4+F3*8+G3*16+H3*32+I3*64+J3*128+K3*256</f>
+        <v>3</v>
+      </c>
+      <c r="M3" t="str">
+        <f>DEC2HEX(L3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -645,15 +654,18 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K20" si="0">J4*128+I4*64+H4*32+G4*16+F4*8+E4*4+D4*2+C4</f>
-        <v>3</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" ref="L4:L18" si="1">DEC2HEX(K4)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L18" si="0">C4+D4*2+E4*4+F4*8+G4*16+H4*32+I4*64+J4*128+K4*256</f>
+        <v>3</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M18" si="1">DEC2HEX(L4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -685,15 +697,18 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -725,15 +740,18 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -765,15 +783,18 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -805,15 +826,18 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -845,15 +869,18 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -885,15 +912,18 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -925,15 +955,18 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -965,15 +998,18 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -990,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
@@ -1005,15 +1041,18 @@
         <v>0</v>
       </c>
       <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L13" t="str">
+        <v>54</v>
+      </c>
+      <c r="M13" t="str">
         <f t="shared" si="1"/>
-        <v>1E</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1036,24 +1075,27 @@
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="L14" t="str">
+        <v>68</v>
+      </c>
+      <c r="M14" t="str">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1079,21 +1121,24 @@
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="L15" t="str">
+        <v>128</v>
+      </c>
+      <c r="M15" t="str">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1119,21 +1164,24 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="L16" t="str">
+        <v>128</v>
+      </c>
+      <c r="M16" t="str">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1162,18 +1210,21 @@
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
         <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="L17" t="str">
+        <v>256</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1190,71 +1241,74 @@
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="L18" t="str">
+        <v>76</v>
+      </c>
+      <c r="M18" t="str">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4C</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
